--- a/src/org/ramadda/plugins/userguide/htdocs/userguide/examples/collections.xlsx
+++ b/src/org/ramadda/plugins/userguide/htdocs/userguide/examples/collections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffmc/projects/olc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffmc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2540E5B-7812-EA47-B171-98CC2946A515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E813CC8-B65A-2A4E-8052-6971F7A37C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1440" windowWidth="33460" windowHeight="17300" xr2:uid="{A472D238-871B-C149-A369-4ED7C5736762}"/>
+    <workbookView xWindow="6580" yWindow="1280" windowWidth="30240" windowHeight="17300" xr2:uid="{A472D238-871B-C149-A369-4ED7C5736762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>type</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>for defining hierarchy</t>
+  </si>
+  <si>
+    <t>type_archive_item</t>
+  </si>
+  <si>
+    <t>item 1</t>
+  </si>
+  <si>
+    <t>Some item</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>item 2</t>
+  </si>
+  <si>
+    <t>Some other item</t>
+  </si>
+  <si>
+    <t>item 3</t>
   </si>
 </sst>
 </file>
@@ -535,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC3292-6F95-2A4E-B5AE-0CBE1C51077F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,6 +708,9 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -692,15 +719,51 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
